--- a/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest_stats_output.xlsx
+++ b/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest_stats_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2487C9C1-C7D3-49F9-AB06-E0E0433424FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E6D8E4-0538-467D-915F-765B102715B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{8D1F74DD-0117-45C7-9293-64DEA5D9C449}"/>
   </bookViews>

--- a/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest_stats_output.xlsx
+++ b/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest_stats_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E6D8E4-0538-467D-915F-765B102715B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86FF55B-BF66-40CA-B4EA-798EFB8280E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{8D1F74DD-0117-45C7-9293-64DEA5D9C449}"/>
   </bookViews>
